--- a/Linked/Principios.xlsx
+++ b/Linked/Principios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estudiante.fit\Desktop\2000ish\2019\UCU\Programacion 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estudiante.fit\Desktop\2000ish\2019\UCU\Programacion 2\pii_2019_equipo1\Linked\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106A39A3-9782-42EB-809D-35010FE88FAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67CC879-E384-4920-A73D-0394D9C30F48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{4DF17DAA-7489-40AA-8D08-407845371BB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4DF17DAA-7489-40AA-8D08-407845371BB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -986,7 +986,7 @@
   <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="30"/>
       <c r="E23" s="6" t="s">
         <v>21</v>
@@ -1211,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636205C4-AF39-4273-AC98-6321D552655A}">
-  <dimension ref="B1:F6"/>
+  <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Linked/Principios.xlsx
+++ b/Linked/Principios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estudiante.fit\Desktop\2000ish\2019\UCU\Programacion 2\pii_2019_equipo1\Linked\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67CC879-E384-4920-A73D-0394D9C30F48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B36BEEF-8CD2-46F3-83ED-B4AC6573041D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4DF17DAA-7489-40AA-8D08-407845371BB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{4DF17DAA-7489-40AA-8D08-407845371BB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +168,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -570,9 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,18 +615,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,6 +661,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,224 +991,224 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F105E4-3FEC-4E22-B5AD-941D1AF1F594}">
   <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.42578125" style="4"/>
-    <col min="3" max="3" width="31.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="4"/>
-    <col min="5" max="5" width="85.7109375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="4.42578125" style="4"/>
+    <col min="1" max="2" width="4.42578125" style="3"/>
+    <col min="3" max="3" width="31.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="3"/>
+    <col min="5" max="5" width="85.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="4.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="31"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="31"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="31"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="31"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="31"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="31"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="2:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="31"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="31"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="31"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="31"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="31"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="31"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="31"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="31"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="31"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="31"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="29"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="31"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="2:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="31"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="29"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="6" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1213,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636205C4-AF39-4273-AC98-6321D552655A}">
   <dimension ref="B1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,68 +1234,68 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="25">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
+      <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <v>4</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="32" t="s">
         <v>27</v>
       </c>
     </row>
